--- a/02_03b/data/street-addresses.xlsx
+++ b/02_03b/data/street-addresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliejhadley/Github/creating-maps-with-R-2825608/02_03b/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Documents/GitHub/creating-maps-with-R-2825608/02_03b/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CAA0C5-096D-834E-95F1-77C4A78360DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468811D-3125-CF40-A5F5-412EC0CEADC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="1" xr2:uid="{144E9E96-4277-9743-A782-0A2594FEF736}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{144E9E96-4277-9743-A782-0A2594FEF736}"/>
   </bookViews>
   <sheets>
     <sheet name="UK Addresses" sheetId="1" r:id="rId1"/>
@@ -671,9 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FCAAD0-4500-E44A-B3A7-9C271CBF2B42}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
